--- a/Analyzed/try2/data_2016.xlsx
+++ b/Analyzed/try2/data_2016.xlsx
@@ -541,13 +541,13 @@
         <v>1888.428</v>
       </c>
       <c r="L2">
-        <v>94.30000000000001</v>
+        <v>3300.5</v>
       </c>
       <c r="M2">
         <v>64.19544811444251</v>
       </c>
       <c r="N2">
-        <v>48.99000000000001</v>
+        <v>1420.71</v>
       </c>
       <c r="O2">
         <v>1069.16</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -632,13 +632,13 @@
         <v>1551.503</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>3010</v>
       </c>
       <c r="M3">
         <v>61.98928291893914</v>
       </c>
       <c r="N3">
-        <v>50.96000000000001</v>
+        <v>1477.84</v>
       </c>
       <c r="O3">
         <v>1029.1</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>1757.662</v>
       </c>
       <c r="L4">
-        <v>82.40000000000001</v>
+        <v>2884</v>
       </c>
       <c r="M4">
         <v>61.23918066820655</v>
       </c>
       <c r="N4">
-        <v>42.44</v>
+        <v>1230.76</v>
       </c>
       <c r="O4">
         <v>1157.94</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>2423.928</v>
       </c>
       <c r="L5">
-        <v>79.80000000000001</v>
+        <v>2793</v>
       </c>
       <c r="M5">
         <v>69.48497858680579</v>
       </c>
       <c r="N5">
-        <v>28.7</v>
+        <v>832.3</v>
       </c>
       <c r="O5">
         <v>1194</v>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -905,13 +905,13 @@
         <v>2298.536</v>
       </c>
       <c r="L6">
-        <v>79.90000000000001</v>
+        <v>2796.5</v>
       </c>
       <c r="M6">
         <v>74.58351918759384</v>
       </c>
       <c r="N6">
-        <v>26.32000000000001</v>
+        <v>763.2800000000001</v>
       </c>
       <c r="O6">
         <v>1047.22</v>
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -996,13 +996,13 @@
         <v>1690.934</v>
       </c>
       <c r="L7">
-        <v>76.2</v>
+        <v>2667</v>
       </c>
       <c r="M7">
         <v>64.25599425830642</v>
       </c>
       <c r="N7">
-        <v>47.36</v>
+        <v>1373.44</v>
       </c>
       <c r="O7">
         <v>1059.11</v>
@@ -1035,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z7">
         <v>3</v>
@@ -1087,13 +1087,13 @@
         <v>992.789</v>
       </c>
       <c r="L8">
-        <v>82.80000000000001</v>
+        <v>2898</v>
       </c>
       <c r="M8">
         <v>75.24871350888742</v>
       </c>
       <c r="N8">
-        <v>-19.66000000000001</v>
+        <v>-570.1400000000001</v>
       </c>
       <c r="O8">
         <v>1094.98</v>
@@ -1138,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="AC8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1178,13 +1178,13 @@
         <v>1714.673</v>
       </c>
       <c r="L9">
-        <v>77.5</v>
+        <v>2712.5</v>
       </c>
       <c r="M9">
         <v>79.56487731194065</v>
       </c>
       <c r="N9">
-        <v>19.75</v>
+        <v>572.75</v>
       </c>
       <c r="O9">
         <v>986.4</v>
@@ -1220,13 +1220,13 @@
         <v>1</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>2</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>2096.721</v>
       </c>
       <c r="L10">
-        <v>84.7</v>
+        <v>2964.5</v>
       </c>
       <c r="M10">
         <v>69.27835009968648</v>
       </c>
       <c r="N10">
-        <v>11.94000000000001</v>
+        <v>346.2600000000003</v>
       </c>
       <c r="O10">
         <v>1111.36</v>
@@ -1308,19 +1308,19 @@
         <v>5</v>
       </c>
       <c r="Y10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>6</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1360,13 +1360,13 @@
         <v>996.4100000000001</v>
       </c>
       <c r="L11">
-        <v>68.40000000000001</v>
+        <v>2394</v>
       </c>
       <c r="M11">
         <v>71.57477071446458</v>
       </c>
       <c r="N11">
-        <v>37.81</v>
+        <v>1096.49</v>
       </c>
       <c r="O11">
         <v>1161.36</v>
@@ -1402,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA11">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="AC11">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
